--- a/mbs-perturbation/mega/welm/WELM_tanh_results.xlsx
+++ b/mbs-perturbation/mega/welm/WELM_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7981220657276995</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5104166666666666</v>
+        <v>0.6619015047879617</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.811965811965812</v>
+        <v>0.7934272300469484</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7203214416169488</v>
+        <v>0.5147058823529411</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7381974248927039</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5500857796416317</v>
+        <v>0.7618517548454689</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8025751072961373</v>
+        <v>0.7877358490566038</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639211811206696</v>
+        <v>0.5217803030303031</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7982832618025751</v>
+        <v>0.8066037735849056</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5759707044873285</v>
+        <v>0.6606047639423762</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7943068852940098</v>
+        <v>0.8032155195322881</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5992012807238544</v>
+        <v>0.6241688417918102</v>
       </c>
     </row>
   </sheetData>
